--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hbegf-Cd9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hbegf-Cd9.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.600099</v>
+        <v>21.691274</v>
       </c>
       <c r="H2">
-        <v>16.800297</v>
+        <v>65.07382200000001</v>
       </c>
       <c r="I2">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894792</v>
       </c>
       <c r="J2">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894791</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.860211</v>
+        <v>51.96137633333333</v>
       </c>
       <c r="N2">
-        <v>119.580633</v>
+        <v>155.884129</v>
       </c>
       <c r="O2">
-        <v>0.08465532840534135</v>
+        <v>0.1051013338704372</v>
       </c>
       <c r="P2">
-        <v>0.08465532840534136</v>
+        <v>0.1051013338704372</v>
       </c>
       <c r="Q2">
-        <v>223.221127760889</v>
+        <v>1127.108451463449</v>
       </c>
       <c r="R2">
-        <v>2008.990149848001</v>
+        <v>10143.97606317104</v>
       </c>
       <c r="S2">
-        <v>0.02009224094259657</v>
+        <v>0.05429633337137406</v>
       </c>
       <c r="T2">
-        <v>0.02009224094259657</v>
+        <v>0.05429633337137404</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.600099</v>
+        <v>21.691274</v>
       </c>
       <c r="H3">
-        <v>16.800297</v>
+        <v>65.07382200000001</v>
       </c>
       <c r="I3">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894792</v>
       </c>
       <c r="J3">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894791</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>125.5476</v>
       </c>
       <c r="O3">
-        <v>0.08887955383630083</v>
+        <v>0.0846476181307213</v>
       </c>
       <c r="P3">
-        <v>0.08887955383630085</v>
+        <v>0.08464761813072132</v>
       </c>
       <c r="Q3">
-        <v>234.3596630708</v>
+        <v>907.7624638808002</v>
       </c>
       <c r="R3">
-        <v>2109.2369676372</v>
+        <v>8169.862174927202</v>
       </c>
       <c r="S3">
-        <v>0.02109482585666474</v>
+        <v>0.04372975226731338</v>
       </c>
       <c r="T3">
-        <v>0.02109482585666474</v>
+        <v>0.04372975226731338</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.600099</v>
+        <v>21.691274</v>
       </c>
       <c r="H4">
-        <v>16.800297</v>
+        <v>65.07382200000001</v>
       </c>
       <c r="I4">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894792</v>
       </c>
       <c r="J4">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894791</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>47.89520899999999</v>
+        <v>31.767079</v>
       </c>
       <c r="N4">
-        <v>143.685627</v>
+        <v>95.301237</v>
       </c>
       <c r="O4">
-        <v>0.1017200999497333</v>
+        <v>0.06425469476884757</v>
       </c>
       <c r="P4">
-        <v>0.1017200999497333</v>
+        <v>0.06425469476884757</v>
       </c>
       <c r="Q4">
-        <v>268.217912025691</v>
+        <v>689.0684147686461</v>
       </c>
       <c r="R4">
-        <v>2413.961208231219</v>
+        <v>6201.615732917815</v>
       </c>
       <c r="S4">
-        <v>0.0241424231102043</v>
+        <v>0.0331945770749781</v>
       </c>
       <c r="T4">
-        <v>0.0241424231102043</v>
+        <v>0.03319457707497809</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.600099</v>
+        <v>21.691274</v>
       </c>
       <c r="H5">
-        <v>16.800297</v>
+        <v>65.07382200000001</v>
       </c>
       <c r="I5">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894792</v>
       </c>
       <c r="J5">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894791</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>38.15399366666666</v>
+        <v>18.83781566666667</v>
       </c>
       <c r="N5">
-        <v>114.461981</v>
+        <v>56.513447</v>
       </c>
       <c r="O5">
-        <v>0.08103165494600567</v>
+        <v>0.03810290822689368</v>
       </c>
       <c r="P5">
-        <v>0.08103165494600569</v>
+        <v>0.03810290822689368</v>
       </c>
       <c r="Q5">
-        <v>213.6661417787063</v>
+        <v>408.6162211871594</v>
       </c>
       <c r="R5">
-        <v>1922.995276008357</v>
+        <v>3677.545990684434</v>
       </c>
       <c r="S5">
-        <v>0.01923219206423594</v>
+        <v>0.01968431923096853</v>
       </c>
       <c r="T5">
-        <v>0.01923219206423594</v>
+        <v>0.01968431923096852</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.600099</v>
+        <v>21.691274</v>
       </c>
       <c r="H6">
-        <v>16.800297</v>
+        <v>65.07382200000001</v>
       </c>
       <c r="I6">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894792</v>
       </c>
       <c r="J6">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894791</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>243.1290336666667</v>
+        <v>244.616435</v>
       </c>
       <c r="N6">
-        <v>729.387101</v>
+        <v>733.849305</v>
       </c>
       <c r="O6">
-        <v>0.5163587365336566</v>
+        <v>0.4947812282762492</v>
       </c>
       <c r="P6">
-        <v>0.5163587365336566</v>
+        <v>0.4947812282762492</v>
       </c>
       <c r="Q6">
-        <v>1361.546658307667</v>
+        <v>5306.042116488191</v>
       </c>
       <c r="R6">
-        <v>12253.919924769</v>
+        <v>47754.37904839371</v>
       </c>
       <c r="S6">
-        <v>0.1225534687854849</v>
+        <v>0.2556086162474639</v>
       </c>
       <c r="T6">
-        <v>0.1225534687854849</v>
+        <v>0.2556086162474638</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.600099</v>
+        <v>21.691274</v>
       </c>
       <c r="H7">
-        <v>16.800297</v>
+        <v>65.07382200000001</v>
       </c>
       <c r="I7">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894792</v>
       </c>
       <c r="J7">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894791</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.96530133333332</v>
+        <v>105.3612136666667</v>
       </c>
       <c r="N7">
-        <v>179.895904</v>
+        <v>316.083641</v>
       </c>
       <c r="O7">
-        <v>0.1273546263289621</v>
+        <v>0.213112216726851</v>
       </c>
       <c r="P7">
-        <v>0.1273546263289621</v>
+        <v>0.213112216726851</v>
       </c>
       <c r="Q7">
-        <v>335.8116240314986</v>
+        <v>2285.418954616212</v>
       </c>
       <c r="R7">
-        <v>3022.304616283488</v>
+        <v>20568.7705915459</v>
       </c>
       <c r="S7">
-        <v>0.03022656559908177</v>
+        <v>0.1100957669973812</v>
       </c>
       <c r="T7">
-        <v>0.03022656559908176</v>
+        <v>0.1100957669973812</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>16.819787</v>
       </c>
       <c r="I8">
-        <v>0.2376170561365961</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="J8">
-        <v>0.237617056136596</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>39.860211</v>
+        <v>51.96137633333333</v>
       </c>
       <c r="N8">
-        <v>119.580633</v>
+        <v>155.884129</v>
       </c>
       <c r="O8">
-        <v>0.08465532840534135</v>
+        <v>0.1051013338704372</v>
       </c>
       <c r="P8">
-        <v>0.08465532840534136</v>
+        <v>0.1051013338704372</v>
       </c>
       <c r="Q8">
-        <v>223.480086265019</v>
+        <v>291.3264273845026</v>
       </c>
       <c r="R8">
-        <v>2011.320776385171</v>
+        <v>2621.937846460523</v>
       </c>
       <c r="S8">
-        <v>0.02011554992195397</v>
+        <v>0.01403410363982468</v>
       </c>
       <c r="T8">
-        <v>0.02011554992195397</v>
+        <v>0.01403410363982468</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>16.819787</v>
       </c>
       <c r="I9">
-        <v>0.2376170561365961</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="J9">
-        <v>0.237617056136596</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>125.5476</v>
       </c>
       <c r="O9">
-        <v>0.08887955383630083</v>
+        <v>0.0846476181307213</v>
       </c>
       <c r="P9">
-        <v>0.08887955383630085</v>
+        <v>0.08464761813072132</v>
       </c>
       <c r="Q9">
-        <v>234.6315433734666</v>
+        <v>234.6315433734667</v>
       </c>
       <c r="R9">
         <v>2111.6838903612</v>
       </c>
       <c r="S9">
-        <v>0.02111929793331591</v>
+        <v>0.01130293405386544</v>
       </c>
       <c r="T9">
-        <v>0.02111929793331591</v>
+        <v>0.01130293405386544</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>16.819787</v>
       </c>
       <c r="I10">
-        <v>0.2376170561365961</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="J10">
-        <v>0.237617056136596</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.89520899999999</v>
+        <v>31.767079</v>
       </c>
       <c r="N10">
-        <v>143.685627</v>
+        <v>95.301237</v>
       </c>
       <c r="O10">
-        <v>0.1017200999497333</v>
+        <v>0.06425469476884757</v>
       </c>
       <c r="P10">
-        <v>0.1017200999497333</v>
+        <v>0.06425469476884757</v>
       </c>
       <c r="Q10">
-        <v>268.5290712334943</v>
+        <v>178.1051674640576</v>
       </c>
       <c r="R10">
-        <v>2416.761641101448</v>
+        <v>1602.946507176519</v>
       </c>
       <c r="S10">
-        <v>0.02417043069997595</v>
+        <v>0.008579882029308412</v>
       </c>
       <c r="T10">
-        <v>0.02417043069997595</v>
+        <v>0.008579882029308412</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>16.819787</v>
       </c>
       <c r="I11">
-        <v>0.2376170561365961</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="J11">
-        <v>0.237617056136596</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>38.15399366666666</v>
+        <v>18.83781566666667</v>
       </c>
       <c r="N11">
-        <v>114.461981</v>
+        <v>56.513447</v>
       </c>
       <c r="O11">
-        <v>0.08103165494600567</v>
+        <v>0.03810290822689368</v>
       </c>
       <c r="P11">
-        <v>0.08103165494600569</v>
+        <v>0.03810290822689368</v>
       </c>
       <c r="Q11">
-        <v>213.9140155575607</v>
+        <v>105.6160156861988</v>
       </c>
       <c r="R11">
-        <v>1925.226140018046</v>
+        <v>950.5441411757889</v>
       </c>
       <c r="S11">
-        <v>0.01925450330214631</v>
+        <v>0.005087853249266569</v>
       </c>
       <c r="T11">
-        <v>0.01925450330214631</v>
+        <v>0.005087853249266569</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>16.819787</v>
       </c>
       <c r="I12">
-        <v>0.2376170561365961</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="J12">
-        <v>0.237617056136596</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>243.1290336666667</v>
+        <v>244.616435</v>
       </c>
       <c r="N12">
-        <v>729.387101</v>
+        <v>733.849305</v>
       </c>
       <c r="O12">
-        <v>0.5163587365336566</v>
+        <v>0.4947812282762492</v>
       </c>
       <c r="P12">
-        <v>0.5163587365336566</v>
+        <v>0.4947812282762492</v>
       </c>
       <c r="Q12">
-        <v>1363.126186596387</v>
+        <v>1371.465444466448</v>
       </c>
       <c r="R12">
-        <v>12268.13567936749</v>
+        <v>12343.18900019803</v>
       </c>
       <c r="S12">
-        <v>0.1226956428855397</v>
+        <v>0.06606777270047363</v>
       </c>
       <c r="T12">
-        <v>0.1226956428855397</v>
+        <v>0.06606777270047363</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>16.819787</v>
       </c>
       <c r="I13">
-        <v>0.2376170561365961</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="J13">
-        <v>0.237617056136596</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>59.96530133333332</v>
+        <v>105.3612136666667</v>
       </c>
       <c r="N13">
-        <v>179.895904</v>
+        <v>316.083641</v>
       </c>
       <c r="O13">
-        <v>0.1273546263289621</v>
+        <v>0.213112216726851</v>
       </c>
       <c r="P13">
-        <v>0.1273546263289621</v>
+        <v>0.213112216726851</v>
       </c>
       <c r="Q13">
-        <v>336.2011986058275</v>
+        <v>590.7177239782741</v>
       </c>
       <c r="R13">
-        <v>3025.810787452447</v>
+        <v>5316.459515804467</v>
       </c>
       <c r="S13">
-        <v>0.03026163139366421</v>
+        <v>0.02845671721107116</v>
       </c>
       <c r="T13">
-        <v>0.03026163139366421</v>
+        <v>0.02845671721107116</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.773942666666667</v>
+        <v>1.276785333333333</v>
       </c>
       <c r="H14">
-        <v>5.321828</v>
+        <v>3.830356</v>
       </c>
       <c r="I14">
-        <v>0.07518270609641543</v>
+        <v>0.03040850715068976</v>
       </c>
       <c r="J14">
-        <v>0.07518270609641541</v>
+        <v>0.03040850715068975</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.860211</v>
+        <v>51.96137633333333</v>
       </c>
       <c r="N14">
-        <v>119.580633</v>
+        <v>155.884129</v>
       </c>
       <c r="O14">
-        <v>0.08465532840534135</v>
+        <v>0.1051013338704372</v>
       </c>
       <c r="P14">
-        <v>0.08465532840534136</v>
+        <v>0.1051013338704372</v>
       </c>
       <c r="Q14">
-        <v>70.70972899523601</v>
+        <v>66.34352320221379</v>
       </c>
       <c r="R14">
-        <v>636.387560957124</v>
+        <v>597.0917088199241</v>
       </c>
       <c r="S14">
-        <v>0.006364616674994307</v>
+        <v>0.00319597466254622</v>
       </c>
       <c r="T14">
-        <v>0.006364616674994306</v>
+        <v>0.00319597466254622</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.773942666666667</v>
+        <v>1.276785333333333</v>
       </c>
       <c r="H15">
-        <v>5.321828</v>
+        <v>3.830356</v>
       </c>
       <c r="I15">
-        <v>0.07518270609641543</v>
+        <v>0.03040850715068976</v>
       </c>
       <c r="J15">
-        <v>0.07518270609641541</v>
+        <v>0.03040850715068975</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>125.5476</v>
       </c>
       <c r="O15">
-        <v>0.08887955383630083</v>
+        <v>0.0846476181307213</v>
       </c>
       <c r="P15">
-        <v>0.08887955383630085</v>
+        <v>0.08464761813072132</v>
       </c>
       <c r="Q15">
-        <v>74.23808144586665</v>
+        <v>53.43244477173334</v>
       </c>
       <c r="R15">
-        <v>668.1427330127999</v>
+        <v>480.8920029456001</v>
       </c>
       <c r="S15">
-        <v>0.006682205374055139</v>
+        <v>0.002574007701216895</v>
       </c>
       <c r="T15">
-        <v>0.006682205374055137</v>
+        <v>0.002574007701216895</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.773942666666667</v>
+        <v>1.276785333333333</v>
       </c>
       <c r="H16">
-        <v>5.321828</v>
+        <v>3.830356</v>
       </c>
       <c r="I16">
-        <v>0.07518270609641543</v>
+        <v>0.03040850715068976</v>
       </c>
       <c r="J16">
-        <v>0.07518270609641541</v>
+        <v>0.03040850715068975</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>47.89520899999999</v>
+        <v>31.767079</v>
       </c>
       <c r="N16">
-        <v>143.685627</v>
+        <v>95.301237</v>
       </c>
       <c r="O16">
-        <v>0.1017200999497333</v>
+        <v>0.06425469476884757</v>
       </c>
       <c r="P16">
-        <v>0.1017200999497333</v>
+        <v>0.06425469476884757</v>
       </c>
       <c r="Q16">
-        <v>84.96335477401732</v>
+        <v>40.55974055004133</v>
       </c>
       <c r="R16">
-        <v>764.6701929661559</v>
+        <v>365.037664950372</v>
       </c>
       <c r="S16">
-        <v>0.007647592378618803</v>
+        <v>0.001953889345343889</v>
       </c>
       <c r="T16">
-        <v>0.007647592378618801</v>
+        <v>0.001953889345343889</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.773942666666667</v>
+        <v>1.276785333333333</v>
       </c>
       <c r="H17">
-        <v>5.321828</v>
+        <v>3.830356</v>
       </c>
       <c r="I17">
-        <v>0.07518270609641543</v>
+        <v>0.03040850715068976</v>
       </c>
       <c r="J17">
-        <v>0.07518270609641541</v>
+        <v>0.03040850715068975</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>38.15399366666666</v>
+        <v>18.83781566666667</v>
       </c>
       <c r="N17">
-        <v>114.461981</v>
+        <v>56.513447</v>
       </c>
       <c r="O17">
-        <v>0.08103165494600567</v>
+        <v>0.03810290822689368</v>
       </c>
       <c r="P17">
-        <v>0.08103165494600569</v>
+        <v>0.03810290822689368</v>
       </c>
       <c r="Q17">
-        <v>67.68299726902976</v>
+        <v>24.05184675523689</v>
       </c>
       <c r="R17">
-        <v>609.1469754212679</v>
+        <v>216.466620797132</v>
       </c>
       <c r="S17">
-        <v>0.006092179098311693</v>
+        <v>0.001158652557279572</v>
       </c>
       <c r="T17">
-        <v>0.006092179098311691</v>
+        <v>0.001158652557279572</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.773942666666667</v>
+        <v>1.276785333333333</v>
       </c>
       <c r="H18">
-        <v>5.321828</v>
+        <v>3.830356</v>
       </c>
       <c r="I18">
-        <v>0.07518270609641543</v>
+        <v>0.03040850715068976</v>
       </c>
       <c r="J18">
-        <v>0.07518270609641541</v>
+        <v>0.03040850715068975</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>243.1290336666667</v>
+        <v>244.616435</v>
       </c>
       <c r="N18">
-        <v>729.387101</v>
+        <v>733.849305</v>
       </c>
       <c r="O18">
-        <v>0.5163587365336566</v>
+        <v>0.4947812282762492</v>
       </c>
       <c r="P18">
-        <v>0.5163587365336566</v>
+        <v>0.4947812282762492</v>
       </c>
       <c r="Q18">
-        <v>431.2969663267365</v>
+        <v>312.3226765002867</v>
       </c>
       <c r="R18">
-        <v>3881.672696940628</v>
+        <v>2810.90408850258</v>
       </c>
       <c r="S18">
-        <v>0.03882124712912632</v>
+        <v>0.01504555851806538</v>
       </c>
       <c r="T18">
-        <v>0.0388212471291263</v>
+        <v>0.01504555851806538</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.773942666666667</v>
+        <v>1.276785333333333</v>
       </c>
       <c r="H19">
-        <v>5.321828</v>
+        <v>3.830356</v>
       </c>
       <c r="I19">
-        <v>0.07518270609641543</v>
+        <v>0.03040850715068976</v>
       </c>
       <c r="J19">
-        <v>0.07518270609641541</v>
+        <v>0.03040850715068975</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>59.96530133333332</v>
+        <v>105.3612136666667</v>
       </c>
       <c r="N19">
-        <v>179.895904</v>
+        <v>316.083641</v>
       </c>
       <c r="O19">
-        <v>0.1273546263289621</v>
+        <v>0.213112216726851</v>
       </c>
       <c r="P19">
-        <v>0.1273546263289621</v>
+        <v>0.213112216726851</v>
       </c>
       <c r="Q19">
-        <v>106.3750065547235</v>
+        <v>134.5236523117996</v>
       </c>
       <c r="R19">
-        <v>957.3750589925119</v>
+        <v>1210.712870806196</v>
       </c>
       <c r="S19">
-        <v>0.009574865441309172</v>
+        <v>0.006480424366237796</v>
       </c>
       <c r="T19">
-        <v>0.009574865441309168</v>
+        <v>0.006480424366237795</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.954772000000001</v>
+        <v>7.010421333333333</v>
       </c>
       <c r="H20">
-        <v>17.864316</v>
+        <v>21.031264</v>
       </c>
       <c r="I20">
-        <v>0.2523733610784663</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="J20">
-        <v>0.2523733610784662</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>39.860211</v>
+        <v>51.96137633333333</v>
       </c>
       <c r="N20">
-        <v>119.580633</v>
+        <v>155.884129</v>
       </c>
       <c r="O20">
-        <v>0.08465532840534135</v>
+        <v>0.1051013338704372</v>
       </c>
       <c r="P20">
-        <v>0.08465532840534136</v>
+        <v>0.1051013338704372</v>
       </c>
       <c r="Q20">
-        <v>237.358468376892</v>
+        <v>364.2711411565618</v>
       </c>
       <c r="R20">
-        <v>2136.226215392028</v>
+        <v>3278.440270409056</v>
       </c>
       <c r="S20">
-        <v>0.02136474976285735</v>
+        <v>0.01754807826356622</v>
       </c>
       <c r="T20">
-        <v>0.02136474976285735</v>
+        <v>0.01754807826356622</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.954772000000001</v>
+        <v>7.010421333333333</v>
       </c>
       <c r="H21">
-        <v>17.864316</v>
+        <v>21.031264</v>
       </c>
       <c r="I21">
-        <v>0.2523733610784663</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="J21">
-        <v>0.2523733610784662</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>125.5476</v>
       </c>
       <c r="O21">
-        <v>0.08887955383630083</v>
+        <v>0.0846476181307213</v>
       </c>
       <c r="P21">
-        <v>0.08887955383630085</v>
+        <v>0.08464761813072132</v>
       </c>
       <c r="Q21">
-        <v>249.2024443824</v>
+        <v>293.3805244629334</v>
       </c>
       <c r="R21">
-        <v>2242.8219994416</v>
+        <v>2640.4247201664</v>
       </c>
       <c r="S21">
-        <v>0.02243083173282173</v>
+        <v>0.01413305590977069</v>
       </c>
       <c r="T21">
-        <v>0.02243083173282173</v>
+        <v>0.01413305590977069</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.954772000000001</v>
+        <v>7.010421333333333</v>
       </c>
       <c r="H22">
-        <v>17.864316</v>
+        <v>21.031264</v>
       </c>
       <c r="I22">
-        <v>0.2523733610784663</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="J22">
-        <v>0.2523733610784662</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>47.89520899999999</v>
+        <v>31.767079</v>
       </c>
       <c r="N22">
-        <v>143.685627</v>
+        <v>95.301237</v>
       </c>
       <c r="O22">
-        <v>0.1017200999497333</v>
+        <v>0.06425469476884757</v>
       </c>
       <c r="P22">
-        <v>0.1017200999497333</v>
+        <v>0.06425469476884757</v>
       </c>
       <c r="Q22">
-        <v>285.205049487348</v>
+        <v>222.7006083192853</v>
       </c>
       <c r="R22">
-        <v>2566.845445386132</v>
+        <v>2004.305474873568</v>
       </c>
       <c r="S22">
-        <v>0.02567144351355173</v>
+        <v>0.01072818365935555</v>
       </c>
       <c r="T22">
-        <v>0.02567144351355172</v>
+        <v>0.01072818365935555</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.954772000000001</v>
+        <v>7.010421333333333</v>
       </c>
       <c r="H23">
-        <v>17.864316</v>
+        <v>21.031264</v>
       </c>
       <c r="I23">
-        <v>0.2523733610784663</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="J23">
-        <v>0.2523733610784662</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>38.15399366666666</v>
+        <v>18.83781566666667</v>
       </c>
       <c r="N23">
-        <v>114.461981</v>
+        <v>56.513447</v>
       </c>
       <c r="O23">
-        <v>0.08103165494600567</v>
+        <v>0.03810290822689368</v>
       </c>
       <c r="P23">
-        <v>0.08103165494600569</v>
+        <v>0.03810290822689368</v>
       </c>
       <c r="Q23">
-        <v>227.198333174444</v>
+        <v>132.0610248230009</v>
       </c>
       <c r="R23">
-        <v>2044.784998569996</v>
+        <v>1188.549223407008</v>
       </c>
       <c r="S23">
-        <v>0.02045023111247397</v>
+        <v>0.006361791910835912</v>
       </c>
       <c r="T23">
-        <v>0.02045023111247397</v>
+        <v>0.006361791910835912</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.954772000000001</v>
+        <v>7.010421333333333</v>
       </c>
       <c r="H24">
-        <v>17.864316</v>
+        <v>21.031264</v>
       </c>
       <c r="I24">
-        <v>0.2523733610784663</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="J24">
-        <v>0.2523733610784662</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>243.1290336666667</v>
+        <v>244.616435</v>
       </c>
       <c r="N24">
-        <v>729.387101</v>
+        <v>733.849305</v>
       </c>
       <c r="O24">
-        <v>0.5163587365336566</v>
+        <v>0.4947812282762492</v>
       </c>
       <c r="P24">
-        <v>0.5163587365336566</v>
+        <v>0.4947812282762492</v>
       </c>
       <c r="Q24">
-        <v>1447.777962065324</v>
+        <v>1714.864274407947</v>
       </c>
       <c r="R24">
-        <v>13030.00165858792</v>
+        <v>15433.77846967152</v>
       </c>
       <c r="S24">
-        <v>0.1303151898612291</v>
+        <v>0.08261036656145848</v>
       </c>
       <c r="T24">
-        <v>0.1303151898612291</v>
+        <v>0.08261036656145848</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.954772000000001</v>
+        <v>7.010421333333333</v>
       </c>
       <c r="H25">
-        <v>17.864316</v>
+        <v>21.031264</v>
       </c>
       <c r="I25">
-        <v>0.2523733610784663</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="J25">
-        <v>0.2523733610784662</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.96530133333332</v>
+        <v>105.3612136666667</v>
       </c>
       <c r="N25">
-        <v>179.895904</v>
+        <v>316.083641</v>
       </c>
       <c r="O25">
-        <v>0.1273546263289621</v>
+        <v>0.213112216726851</v>
       </c>
       <c r="P25">
-        <v>0.1273546263289621</v>
+        <v>0.213112216726851</v>
       </c>
       <c r="Q25">
-        <v>357.079697351296</v>
+        <v>738.6264999946916</v>
       </c>
       <c r="R25">
-        <v>3213.717276161664</v>
+        <v>6647.638499952224</v>
       </c>
       <c r="S25">
-        <v>0.0321409150955323</v>
+        <v>0.03558194477964444</v>
       </c>
       <c r="T25">
-        <v>0.0321409150955323</v>
+        <v>0.03558194477964444</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.472614</v>
+        <v>4.705559666666667</v>
       </c>
       <c r="H26">
-        <v>7.417842</v>
+        <v>14.116679</v>
       </c>
       <c r="I26">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="J26">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>39.860211</v>
+        <v>51.96137633333333</v>
       </c>
       <c r="N26">
-        <v>119.580633</v>
+        <v>155.884129</v>
       </c>
       <c r="O26">
-        <v>0.08465532840534135</v>
+        <v>0.1051013338704372</v>
       </c>
       <c r="P26">
-        <v>0.08465532840534136</v>
+        <v>0.1051013338704372</v>
       </c>
       <c r="Q26">
-        <v>98.558915761554</v>
+        <v>244.5073566986212</v>
       </c>
       <c r="R26">
-        <v>887.0302418539861</v>
+        <v>2200.566210287591</v>
       </c>
       <c r="S26">
-        <v>0.008871335354256681</v>
+        <v>0.01177868281781075</v>
       </c>
       <c r="T26">
-        <v>0.008871335354256681</v>
+        <v>0.01177868281781075</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.472614</v>
+        <v>4.705559666666667</v>
       </c>
       <c r="H27">
-        <v>7.417842</v>
+        <v>14.116679</v>
       </c>
       <c r="I27">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="J27">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>125.5476</v>
       </c>
       <c r="O27">
-        <v>0.08887955383630083</v>
+        <v>0.0846476181307213</v>
       </c>
       <c r="P27">
-        <v>0.08887955383630085</v>
+        <v>0.08464761813072132</v>
       </c>
       <c r="Q27">
-        <v>103.4769178088</v>
+        <v>196.9239076022667</v>
       </c>
       <c r="R27">
-        <v>931.2922602791999</v>
+        <v>1772.3151684204</v>
       </c>
       <c r="S27">
-        <v>0.009314007081080393</v>
+        <v>0.009486439501082095</v>
       </c>
       <c r="T27">
-        <v>0.009314007081080395</v>
+        <v>0.009486439501082095</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.472614</v>
+        <v>4.705559666666667</v>
       </c>
       <c r="H28">
-        <v>7.417842</v>
+        <v>14.116679</v>
       </c>
       <c r="I28">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="J28">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>47.89520899999999</v>
+        <v>31.767079</v>
       </c>
       <c r="N28">
-        <v>143.685627</v>
+        <v>95.301237</v>
       </c>
       <c r="O28">
-        <v>0.1017200999497333</v>
+        <v>0.06425469476884757</v>
       </c>
       <c r="P28">
-        <v>0.1017200999497333</v>
+        <v>0.06425469476884757</v>
       </c>
       <c r="Q28">
-        <v>118.426364306326</v>
+        <v>149.4818856702137</v>
       </c>
       <c r="R28">
-        <v>1065.837278756934</v>
+        <v>1345.336971031923</v>
       </c>
       <c r="S28">
-        <v>0.01065961394186329</v>
+        <v>0.007201009172447633</v>
       </c>
       <c r="T28">
-        <v>0.01065961394186329</v>
+        <v>0.007201009172447632</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.472614</v>
+        <v>4.705559666666667</v>
       </c>
       <c r="H29">
-        <v>7.417842</v>
+        <v>14.116679</v>
       </c>
       <c r="I29">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="J29">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>38.15399366666666</v>
+        <v>18.83781566666667</v>
       </c>
       <c r="N29">
-        <v>114.461981</v>
+        <v>56.513447</v>
       </c>
       <c r="O29">
-        <v>0.08103165494600567</v>
+        <v>0.03810290822689368</v>
       </c>
       <c r="P29">
-        <v>0.08103165494600569</v>
+        <v>0.03810290822689368</v>
       </c>
       <c r="Q29">
-        <v>94.34009889611131</v>
+        <v>88.64246560916811</v>
       </c>
       <c r="R29">
-        <v>849.0608900650019</v>
+        <v>797.782190482513</v>
       </c>
       <c r="S29">
-        <v>0.008491597621527527</v>
+        <v>0.00427018434413011</v>
       </c>
       <c r="T29">
-        <v>0.008491597621527527</v>
+        <v>0.00427018434413011</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.472614</v>
+        <v>4.705559666666667</v>
       </c>
       <c r="H30">
-        <v>7.417842</v>
+        <v>14.116679</v>
       </c>
       <c r="I30">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="J30">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>243.1290336666667</v>
+        <v>244.616435</v>
       </c>
       <c r="N30">
-        <v>729.387101</v>
+        <v>733.849305</v>
       </c>
       <c r="O30">
-        <v>0.5163587365336566</v>
+        <v>0.4947812282762492</v>
       </c>
       <c r="P30">
-        <v>0.5163587365336566</v>
+        <v>0.4947812282762492</v>
       </c>
       <c r="Q30">
-        <v>601.1642524506714</v>
+        <v>1151.057230339788</v>
       </c>
       <c r="R30">
-        <v>5410.478272056042</v>
+        <v>10359.51507305809</v>
       </c>
       <c r="S30">
-        <v>0.05411108315541437</v>
+        <v>0.05545002082710974</v>
       </c>
       <c r="T30">
-        <v>0.05411108315541437</v>
+        <v>0.05545002082710973</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.472614</v>
+        <v>4.705559666666667</v>
       </c>
       <c r="H31">
-        <v>7.417842</v>
+        <v>14.116679</v>
       </c>
       <c r="I31">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="J31">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>59.96530133333332</v>
+        <v>105.3612136666667</v>
       </c>
       <c r="N31">
-        <v>179.895904</v>
+        <v>316.083641</v>
       </c>
       <c r="O31">
-        <v>0.1273546263289621</v>
+        <v>0.213112216726851</v>
       </c>
       <c r="P31">
-        <v>0.1273546263289621</v>
+        <v>0.213112216726851</v>
       </c>
       <c r="Q31">
-        <v>148.2710435910186</v>
+        <v>495.7834774609155</v>
       </c>
       <c r="R31">
-        <v>1334.439392319168</v>
+        <v>4462.051297148239</v>
       </c>
       <c r="S31">
-        <v>0.01334594786131602</v>
+        <v>0.02388343813524315</v>
       </c>
       <c r="T31">
-        <v>0.01334594786131602</v>
+        <v>0.02388343813524314</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.187066</v>
+        <v>1.697131666666666</v>
       </c>
       <c r="H32">
-        <v>6.561197999999999</v>
+        <v>5.091394999999999</v>
       </c>
       <c r="I32">
-        <v>0.09269157531479572</v>
+        <v>0.04041966889356657</v>
       </c>
       <c r="J32">
-        <v>0.0926915753147957</v>
+        <v>0.04041966889356656</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>39.860211</v>
+        <v>51.96137633333333</v>
       </c>
       <c r="N32">
-        <v>119.580633</v>
+        <v>155.884129</v>
       </c>
       <c r="O32">
-        <v>0.08465532840534135</v>
+        <v>0.1051013338704372</v>
       </c>
       <c r="P32">
-        <v>0.08465532840534136</v>
+        <v>0.1051013338704372</v>
       </c>
       <c r="Q32">
-        <v>87.17691223092599</v>
+        <v>88.18529721888387</v>
       </c>
       <c r="R32">
-        <v>784.5922100783339</v>
+        <v>793.6676749699549</v>
       </c>
       <c r="S32">
-        <v>0.007846835748682463</v>
+        <v>0.004248161115315264</v>
       </c>
       <c r="T32">
-        <v>0.007846835748682463</v>
+        <v>0.004248161115315263</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.187066</v>
+        <v>1.697131666666666</v>
       </c>
       <c r="H33">
-        <v>6.561197999999999</v>
+        <v>5.091394999999999</v>
       </c>
       <c r="I33">
-        <v>0.09269157531479572</v>
+        <v>0.04041966889356657</v>
       </c>
       <c r="J33">
-        <v>0.0926915753147957</v>
+        <v>0.04041966889356656</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>125.5476</v>
       </c>
       <c r="O33">
-        <v>0.08887955383630083</v>
+        <v>0.0846476181307213</v>
       </c>
       <c r="P33">
-        <v>0.08887955383630085</v>
+        <v>0.08464761813072132</v>
       </c>
       <c r="Q33">
-        <v>91.52696244719998</v>
+        <v>71.02360254466666</v>
       </c>
       <c r="R33">
-        <v>823.7426620247999</v>
+        <v>639.2124229020001</v>
       </c>
       <c r="S33">
-        <v>0.00823838585836292</v>
+        <v>0.003421428697472817</v>
       </c>
       <c r="T33">
-        <v>0.00823838585836292</v>
+        <v>0.003421428697472817</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.187066</v>
+        <v>1.697131666666666</v>
       </c>
       <c r="H34">
-        <v>6.561197999999999</v>
+        <v>5.091394999999999</v>
       </c>
       <c r="I34">
-        <v>0.09269157531479572</v>
+        <v>0.04041966889356657</v>
       </c>
       <c r="J34">
-        <v>0.0926915753147957</v>
+        <v>0.04041966889356656</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>47.89520899999999</v>
+        <v>31.767079</v>
       </c>
       <c r="N34">
-        <v>143.685627</v>
+        <v>95.301237</v>
       </c>
       <c r="O34">
-        <v>0.1017200999497333</v>
+        <v>0.06425469476884757</v>
       </c>
       <c r="P34">
-        <v>0.1017200999497333</v>
+        <v>0.06425469476884757</v>
       </c>
       <c r="Q34">
-        <v>104.749983166794</v>
+        <v>53.91291572840166</v>
       </c>
       <c r="R34">
-        <v>942.7498485011457</v>
+        <v>485.2162415556149</v>
       </c>
       <c r="S34">
-        <v>0.009428596305519255</v>
+        <v>0.002597153487414002</v>
       </c>
       <c r="T34">
-        <v>0.009428596305519255</v>
+        <v>0.002597153487414002</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.187066</v>
+        <v>1.697131666666666</v>
       </c>
       <c r="H35">
-        <v>6.561197999999999</v>
+        <v>5.091394999999999</v>
       </c>
       <c r="I35">
-        <v>0.09269157531479572</v>
+        <v>0.04041966889356657</v>
       </c>
       <c r="J35">
-        <v>0.0926915753147957</v>
+        <v>0.04041966889356656</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>38.15399366666666</v>
+        <v>18.83781566666667</v>
       </c>
       <c r="N35">
-        <v>114.461981</v>
+        <v>56.513447</v>
       </c>
       <c r="O35">
-        <v>0.08103165494600567</v>
+        <v>0.03810290822689368</v>
       </c>
       <c r="P35">
-        <v>0.08103165494600569</v>
+        <v>0.03810290822689368</v>
       </c>
       <c r="Q35">
-        <v>83.44530231258197</v>
+        <v>31.97025349872944</v>
       </c>
       <c r="R35">
-        <v>751.0077208132378</v>
+        <v>287.732281488565</v>
       </c>
       <c r="S35">
-        <v>0.007510951747310223</v>
+        <v>0.001540106934412996</v>
       </c>
       <c r="T35">
-        <v>0.007510951747310223</v>
+        <v>0.001540106934412996</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.187066</v>
+        <v>1.697131666666666</v>
       </c>
       <c r="H36">
-        <v>6.561197999999999</v>
+        <v>5.091394999999999</v>
       </c>
       <c r="I36">
-        <v>0.09269157531479572</v>
+        <v>0.04041966889356657</v>
       </c>
       <c r="J36">
-        <v>0.0926915753147957</v>
+        <v>0.04041966889356656</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>243.1290336666667</v>
+        <v>244.616435</v>
       </c>
       <c r="N36">
-        <v>729.387101</v>
+        <v>733.849305</v>
       </c>
       <c r="O36">
-        <v>0.5163587365336566</v>
+        <v>0.4947812282762492</v>
       </c>
       <c r="P36">
-        <v>0.5163587365336566</v>
+        <v>0.4947812282762492</v>
       </c>
       <c r="Q36">
-        <v>531.739243145222</v>
+        <v>415.1462980256083</v>
       </c>
       <c r="R36">
-        <v>4785.653188306997</v>
+        <v>3736.316682230474</v>
       </c>
       <c r="S36">
-        <v>0.04786210471686219</v>
+        <v>0.01999889342167817</v>
       </c>
       <c r="T36">
-        <v>0.04786210471686218</v>
+        <v>0.01999889342167816</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.187066</v>
+        <v>1.697131666666666</v>
       </c>
       <c r="H37">
-        <v>6.561197999999999</v>
+        <v>5.091394999999999</v>
       </c>
       <c r="I37">
-        <v>0.09269157531479572</v>
+        <v>0.04041966889356657</v>
       </c>
       <c r="J37">
-        <v>0.0926915753147957</v>
+        <v>0.04041966889356656</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>59.96530133333332</v>
+        <v>105.3612136666667</v>
       </c>
       <c r="N37">
-        <v>179.895904</v>
+        <v>316.083641</v>
       </c>
       <c r="O37">
-        <v>0.1273546263289621</v>
+        <v>0.213112216726851</v>
       </c>
       <c r="P37">
-        <v>0.1273546263289621</v>
+        <v>0.213112216726851</v>
       </c>
       <c r="Q37">
-        <v>131.1480717258879</v>
+        <v>178.8118521521328</v>
       </c>
       <c r="R37">
-        <v>1180.332645532992</v>
+        <v>1609.306669369195</v>
       </c>
       <c r="S37">
-        <v>0.01180470093805866</v>
+        <v>0.008613925237273317</v>
       </c>
       <c r="T37">
-        <v>0.01180470093805866</v>
+        <v>0.008613925237273317</v>
       </c>
     </row>
   </sheetData>
